--- a/kvartir.xlsx
+++ b/kvartir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2238,10 +2238,8 @@
           <t>микрорайон Северный, жилой комплекс Норд</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>11000</t>
-        </is>
+      <c r="D65" t="n">
+        <v>11000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2251,6 +2249,568 @@
       <c r="F65" t="inlineStr">
         <is>
           <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_33m_33et._2164009770</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 35 м², 5/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Добровольского, 40/1</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2021-06-22-10:07 Несколько секунд назад</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_35m_59et._2141236065</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 24 м², 6/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, пр-т Космонавтов, 8/1</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2021-06-24-08:35 1 час назад</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_24m_69et._2194313619</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 39 м², 5/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, пр-т Космонавтов, 39</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2021-06-24-08:35 13 часов назад</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_39m_59et._2159138014</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1-к квартира, 40.5 м², 14/23 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Пацаева, 20А</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2021-06-24-08:35 14 часов назад</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k_kvartira_40.5_m_1423_et._1928338635</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 40 м², 3/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Добровольского, 34/2</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2021-06-24-08:35 17 часов назад</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_40m_39et._2165281861</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 30 м², 5/5 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>пр-т Ленина, 121</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2021-06-24-08:35 18 часов назад</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_30m_55et._2148140817</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 43 м², 4/10 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Добровольского, 11/2</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>13500</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2021-06-24-08:35 19 часов назад</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_43m_410et._2048661990</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 30 м², 5/5 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>пр-т Ленина, 107</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2021-06-24-08:35 20 часов назад</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_30m_55et._2039563763</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 36 м², 7/12 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, Орбитальная ул., 76</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2021-06-24-08:35 21 час назад</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_36m_712et._2157881332</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 23 м², 7/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, пр-т Космонавтов, 34/3</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2021-06-24-08:35 21 час назад</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_23m_79et._2188224007</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 30 м², 6/14 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, б-р Комарова, 4/2</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2021-06-24-08:35 21 час назад</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_30m_614et._934550168</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 40 м², 6/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Добровольского, 8/3</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>13500</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2021-06-24-08:35 22 часа назад</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_40m_69et._2166202282</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 35 м², 2/5 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>микрорайон Северный</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2021-06-24-08:35 23 часа назад</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_35m_25et._2200742251</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 35 м², 1/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, б-р Комарова, 19Б</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2021-06-24-08:35 1 день назад</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_35m_19et._2152899295</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 48 м², 5/16 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, Орбитальная ул., 90</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2021-06-24-08:35 1 день назад</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_48m_516et._1956527457</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 31 м², 5/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, пр-т Космонавтов, 8/3</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2021-06-24-08:35 1 день назад</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_31m_59et._1011941193</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 35,5 м², 8/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>пр-т Королёва, 20</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>12500</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2021-06-24-08:35 3 дня назад</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_355m_89et._1561142529</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 34 м², 8/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Беляева, 9</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2021-06-24-09:26 3 минуты назад</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_34m_89et._2199088961</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 35,5 м², 6/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, Орбитальная ул., 52</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2021-06-24-10:16 3 минуты назад</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_355m_69et._1215793221</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 30,3 м², 6/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, Орбитальная ул., 30/1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>13000</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2021-06-24-12:37 2 минуты назад</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_303m_69et._2110557685</t>
         </is>
       </c>
     </row>

--- a/kvartir.xlsx
+++ b/kvartir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2762,12 +2762,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1-к. квартира, 35,5 м², 6/9 эт. в Ростове-на-Дону</t>
+          <t>1-к. квартира, 30,3 м², 6/9 эт. в Ростове-на-Дону</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>микрорайон Северный, Орбитальная ул., 52</t>
+          <t>микрорайон Северный, Орбитальная ул., 30/1</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2021-06-24-10:16 3 минуты назад</t>
+          <t>2021-06-24-14:23 1 час назад</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_355m_69et._1215793221</t>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_303m_69et._2110557685</t>
         </is>
       </c>
     </row>
@@ -2790,27 +2790,279 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1-к. квартира, 30,3 м², 6/9 эт. в Ростове-на-Дону</t>
+          <t>1-к. квартира, 35,5 м², 6/9 эт. в Ростове-на-Дону</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>микрорайон Северный, Орбитальная ул., 30/1</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>13000</t>
-        </is>
+          <t>микрорайон Северный, Орбитальная ул., 52</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>13000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2021-06-24-12:37 2 минуты назад</t>
+          <t>2021-06-24-14:23 4 часа назад</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_303m_69et._2110557685</t>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_355m_69et._1215793221</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 45 м², 6/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Капустина, 14</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>18</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2021-06-24-15:18 2 минуты назад</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_45m_69et._2148438708</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 30 м², 3/5 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Борко, 10/1</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2021-06-25-07:56 10 часов назад</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_30m_35et._245288654</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 25 м², 4/4 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Зональный пер., 9А</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2021-06-25-07:56 10 часов назад</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_25_m44_et._1926193409</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 23 м², 8/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, пр-т Космонавтов, 8/1</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2021-06-25-07:56 14 часов назад</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_23m_89et._1494566076</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 29,2 м², 3/5 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Башкирская ул., 10</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2021-06-25-10:01 2 минуты назад</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_292m_35et._2164713115</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 24 м², 8/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Беляева, 26</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2021-06-25-11:37 8 минут назад</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_24m_89et._2155480474</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 30 м², 4/5 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>пр-т Михаила Нагибина, 35А</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2021-06-25-13:13 1 минуту назад</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_30m_45et._2167008196</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 31 м², 5/5 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ул. Нариманова, 72</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2021-06-25-13:48 2 минуты назад</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_31m_55et._2164066482</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 44 м², 5/10 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Измаильский пер., 43</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2021-06-25-15:38 3 минуты назад</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_44m_510et._2142813104</t>
         </is>
       </c>
     </row>

--- a/kvartir.xlsx
+++ b/kvartir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3050,10 +3050,8 @@
           <t>Измаильский пер., 43</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>12000</t>
-        </is>
+      <c r="D94" t="n">
+        <v>12000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3063,6 +3061,1520 @@
       <c r="F94" t="inlineStr">
         <is>
           <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_44m_510et._2142813104</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 40 м², 2/10 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, пр-т Космонавтов</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>13500</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2021-06-28-07:48 20 часов назад</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_40m_210et._2169210847</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 21,5 м², 6/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, пр-т Космонавтов, 8/2</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2021-06-28-07:48 22 часа назад</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_215m_69et._1881097003</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 23 м², 8/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, Орбитальная ул., 68/1</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2021-06-28-07:48 1 день назад</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_23m_89et._2169859722</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1-к квартира, 29 м², 8/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, б-р Комарова, 21</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2021-06-28-07:48 1 день назад</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k_kvartira_29_m_89_et._1900203567</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 29 м², 2/5 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Добровольского, 12</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2021-06-28-07:48 1 день назад</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_29m_25et._2175282216</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 45 м², 2/16 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>пр-т Михаила Нагибина, 14Г</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2021-06-28-07:48 1 день назад</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_45m_216et._2186518328</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1-к квартира, 38 м², 8/10 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, Орбитальная ул., 78/2</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2021-06-28-07:48 1 день назад</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k_kvartira_38_m_810_et._799058151</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 38 м², 2/5 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2-й Атмосферный пер., 8</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2021-06-28-07:48 1 день назад</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_38m_25et._2186459103</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 31 м², 5/5 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Криворожская ул., 61</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2021-06-28-07:48 1 день назад</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_31m_55et._796652171</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 40 м², 7/19 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, Орбитальная ул., 15</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2021-06-28-07:48 1 день назад</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_40m_719et._2155099189</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 44 м², 6/10 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Беляева, 28</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2021-06-28-07:48 1 день назад</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_44m_610et._2159277894</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 28 м², 6/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Добровольского, 20/1</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2021-06-28-07:48 2 дня назад</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_28m_69et._1801216226</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 35 м², 2/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>пр-т Ленина, 66А</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2021-06-28-07:48 2 дня назад</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_35m_29et._1445413073</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 33 м², 3/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Ворошиловский район</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2021-06-28-07:48 1 неделю назад</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_33m_39et._2169324010</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1-к квартира, 30 м², 5/5 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ул. Новаторов, 8</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2021-06-28-09:04 8 минут назад</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k_kvartira_30_m_55_et._1957578476</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 27 м², 3/4 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>микрорайон Мясникован, Каракумская ул., 104</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2021-06-28-13:15 Несколько секунд назад</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_27m_34et._2083924022</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 35 м², 3/3 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>микрорайон Мясникован, ул. Атарбекова, 7</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2021-06-28-15:26 2 минуты назад</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_35m_33et._2200533201</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 25 м², 1/3 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Башкирская ул., 4/4</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2021-06-28-16:07 3 минуты назад</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_25m_13et._2176920902</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 30 м², 5/5 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Волкова, 3/4</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2021-06-28-22:19 8 минут назад</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_30m_55et._2160229500</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 32 м², 4/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>пр-т Михаила Нагибина, 37</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2021-06-29-08:58 5 минут назад</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_32m_49et._2198413365</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 30 м², 1/3 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Зональный пер., 28</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2021-06-29-11:11 Несколько секунд назад</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_30m_13et._1445944546</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 38 м², 6/16 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Капустина, 8</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2021-06-29-11:41 7 минут назад</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_38m_616et._2197757893</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 30 м², 9/23 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Пацаева, 18</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2021-06-29-12:57 5 минут назад</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_30m_923et._2169447913</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 29,1 м², 6/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, пр-т Космонавтов, 36/2</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2021-06-29-12:57 6 дней назад</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_291m_69et._2173385653</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 29 м², 1/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, пр-т Космонавтов, 34/3</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2021-06-29-14:12 7 минут назад</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_29m_19et._2149466881</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 25 м², 3/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, Орбитальная ул., 82</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2021-06-29-15:13 5 минут назад</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_25m_39et._2160226076</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 37 м², 9/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Добровольского, 20</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2021-06-30-08:01 8 часов назад</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_37m_99et._2164076219</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 27 м², 3/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, б-р Комарова, 40/2</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2021-06-30-08:01 8 часов назад</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_27m_39et._2164092685</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 19 м², 8/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, Орбитальная ул., 68</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2021-06-30-08:01 9 часов назад</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_19m_89et._2182984076</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 32 м², 3/5 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Башкирская ул., 10</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2021-06-30-08:01 12 часов назад</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_32m_35et._1201845482</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 38 м², 1/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, б-р Комарова, 7</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2021-06-30-08:01 13 часов назад</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_38m_19et._2174912329</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 40 м², 4/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>пр-т Королёва, 3/2</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2021-06-30-08:36 1 минуту назад</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_40m_49et._2143600504</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 37 м², 6/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, б-р Комарова, 11/1</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2021-06-30-09:57 6 минут назад</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_37m_69et._2029746763</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 45 м², 7/10 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Турмалиновская ул., 62</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2021-06-30-10:12 4 минуты назад</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_45m_710et._1955481070</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 22 м², 7/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, пр-т Космонавтов, 34/3</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2021-06-30-10:47 2 минуты назад</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_22m_79et._2175944058</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 22 м², 4/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Пацаева, 9</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2021-06-30-13:38 4 минуты назад</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_22m_49et._1070105902</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 25 м², 8/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, Орбитальная ул., 66/6</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>11500</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2021-06-30-13:43 1 минуту назад</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_25m_89et._2188486679</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 41 м², 4/10 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>пр-т Михаила Нагибина, 41А</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2021-06-30-15:54 Несколько секунд назад</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_41m_410et._2185900359</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 23 м², 3/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, Орбитальная ул., 68</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2021-06-30-16:40 Несколько секунд назад</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_23m_39et._2179643464</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 35 м², 3/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, б-р Комарова, 21</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2021-06-30-19:46 Несколько секунд назад</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_35m_39et._2202011961</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1-к квартира, 13 м², 5/5 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>пр-т Михаила Нагибина, 37А</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2021-06-30-20:51 8 минут назад</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k_kvartira_13_m_55_et._2069140354</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 32,5 м², 3/3 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Сумский пер., 7</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2021-06-30-21:12 4 часа назад</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_325m_33et._2196685862</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 30 м², 8/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, Орбитальная ул., 66/6</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2021-06-30-22:22 6 минут назад</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_30m_89et._1046338379</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 28 м², 1/6 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>микрорайон Мясникован, Дубовский пер., 9В</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2021-06-30-23:07 1 минуту назад</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_28m_16et._2198408646</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 40 м², 9/10 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Беляева, 16</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2021-06-30-23:22 Несколько секунд назад</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_40m_910et._2177495002</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 23 м², 1/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Добровольского, 36</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2021-07-01-08:26 4 минуты назад</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_23m_19et._921153799</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 39 м², 6/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, пр-т Космонавтов, 39</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2021-07-01-09:01 1 минуту назад</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_39m_69et._2175482578</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 30 м², 1/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Беляева, 26</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2021-07-01-09:21 1 минуту назад</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_30m_19et._2193769733</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 43 м², 5/10 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Добровольского, 11/2</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2021-07-01-12:58 9 минут назад</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_43m_510et._1774586478</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 45 м², 7/14 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>ул. Евдокимова, 35Д</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2021-07-01-13:08 Несколько секунд назад</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_45_m_714_et._2098123528</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 23 м², 5/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, ул. Пацаева, 9</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2021-07-01-13:28 9 минут назад</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_23m_59et._2201069139</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 43 м², 6/16 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>пр-т Королёва, 6/2</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2021-07-01-14:59 1 минуту назад</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_43m_616et._523709372</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 31 м², 7/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>ул. Новаторов, 20</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2021-07-01-23:42 4 минуты назад</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_31m_79et._2190177555</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1-к. квартира, 40 м², 6/9 эт. в Ростове-на-Дону</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>микрорайон Северный, пр-т Космонавтов, 34/2</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>13000</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2021-07-02-07:15 2 минуты назад</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/kvartiry/1-k._kvartira_40m_69et._2188782454</t>
         </is>
       </c>
     </row>
